--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/10_Artvin_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/10_Artvin_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2B1A40-DF59-4A8B-8F0B-B1E5BD845C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBCE5F4C-BEF8-47AC-BAEF-D9B32CEEB971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{C42A63BD-B101-4079-9196-6B3DFADE2C05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{2B134046-817E-48A5-8C55-16D4252B9D8F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -974,15 +974,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{743E475E-07F8-48FC-B480-0B7590D1DEF2}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{135C7DA8-1A7D-43F5-B63F-49FE303D12EE}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6AC008F8-B73B-4826-9843-F89C443B95AB}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{C656A9CC-C3CD-4DA0-9B36-5B797F6E7CE6}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{2D88BBFB-41F9-40B6-836A-FA688F63B7E3}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{51BBB8A0-D4C9-43B3-A150-0DCDF2EE497A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{813B3D08-AFD4-45E3-88A2-07BBA20177DC}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{B37E4177-C7DE-497F-B6AE-414A85D502A4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{AA97183D-93F8-4CA6-B6EC-7848488A4F69}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8BE7DE01-AA7F-41E4-992D-6870E61D1287}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6B3A21BD-6E6D-45CA-B51C-4B961A9BE87E}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{9FDF6506-E93E-4379-B81F-E77C560F1C0B}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{0236742B-5F0F-419D-A0F8-A893A9E2F45B}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{92035DE4-861A-41CE-BBA5-1A83EE7F9CBE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{B71D47F1-A3BD-4865-8754-895351044AE5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{2756340C-CC73-458A-91C6-3E3E509C767A}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{0919E275-28B4-46C8-BC71-2D9B896E7C94}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{F8CAA3B4-96B4-4385-A58C-6B7C43C9FF53}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18681134-3AF0-4385-9720-FC7F8B992457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF238AF-F877-47E7-811C-1158366B4EFF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2633,18 +2633,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DBD35CF9-B658-41BB-98BD-FBDF5961B123}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44C06252-6D5E-492E-A6C3-4D465C8E2221}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CCF31C16-C7E0-4AB4-ABD5-1CE94217090E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E4B64081-A25E-418D-B8F2-968903F426FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A144293-A25E-48E7-9B77-6CA8AB01755C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{85B1ABC1-00F9-415F-8080-66A3A3F11091}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FFB1088-B2F0-48FB-97B9-C5ACAB079928}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AFCBE11D-4885-4064-B1AD-00F08FF10ABA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6D7383E-B71A-4B6B-9256-17B21A2FC509}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8F1080D-7D29-4454-A3E2-7F87A974004E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A21A9022-467A-45D1-9A79-B1A4FC4C34CC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{47BE32E5-8F89-4E98-B552-DFD0CC13BF05}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1ACE5D71-1433-43E3-A12F-72104B5F9065}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7880A2F-C037-441E-87A3-98D53814A3E0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{41D9DBEB-0217-4649-961D-083B5D60D49D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CCFCA06C-D7D5-4DEE-9963-D1BBB9624D96}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{024FA5C8-2F6B-4AA6-AF3A-140EE6E526F4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8E98287F-7D8C-4F9F-8578-12C1F08C3A97}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D24CFF94-886A-4677-AC44-86A57F0B9883}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78F63C11-D78F-4C87-9F36-6BE4EB420128}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2B0B07A-EC10-4D9B-8A46-1ECFB2F9EECB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E0CA81F1-CC3E-45C3-B43A-56545067ADCD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54A80CDE-EEA2-407C-8FFF-E003B62497F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C117A4EF-5263-44E8-8EA8-6BB070F48939}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2657,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB240D47-F152-49AA-B39E-259FAB3D4C55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7598D028-A2F3-4D77-9258-1ECFDEF46402}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3915,18 +3915,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F77FCCB-32E5-49E4-A2DA-6D51DBCFEA73}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A02EB9B3-489A-4521-924F-220D44134ABC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4E4D4583-1EC4-4AD1-8181-4F30CC3C0638}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{165A237A-37D1-4C40-9BE4-FBC61FC29F81}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B58418B9-96AB-4AFB-99F4-ED5159601EFB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{49057758-98AB-4679-8649-3D54811B9352}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04064776-C6FB-4B29-B4BF-C40EC1385C37}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91B01AED-1370-4B2C-A48B-3465DC00806B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8072E81C-A58C-4BF0-9125-A6E75716E158}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{93A094AD-3C8F-4BCC-BDD4-0B3793FC049C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C06FA92B-1847-413E-B89F-98B894B74B11}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E270BEF2-53E2-4025-B7AF-A6D26BE75BE8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1384BA79-A07F-4C8F-A91C-F32A8F843142}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44B831B2-71F1-4AAA-A39E-D61722056CE9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C61F46BD-A815-47E8-840D-DDF9171707F2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{278EF4B8-4BB5-426F-A0BD-862CB45018F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13866FA3-A77B-4C20-8F34-7CAB0532C1F5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5969CC14-2865-454A-9403-B676A5712DAB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82166FFB-1D74-4B8D-9BD4-CCE538FDD904}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37DDB66D-A9F0-404C-ABDA-0EA275350497}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D101F56-536B-49D2-A2B2-543964663F0E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{430F2958-2BF2-472A-B6AB-186DCC41DF56}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0FD7EB4-0B0F-490B-BB51-359C5641DC6A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2B7E57D-4263-4A89-97DC-8DBBD056326B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3939,7 +3939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9612CDB0-EF2A-42E6-9711-81EB5236CD43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9625B1-4677-494F-8EFD-B54581DA7D1B}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5197,18 +5197,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFA01875-6505-4C98-BC8C-D0697CAAE603}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DED78A89-B2E4-45CC-A77F-E4742005D9F9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4EC02660-05C4-4FFE-AE54-807FE970A649}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C6FD5A9-8BD9-46C1-9C84-0BD67FCFA806}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{426622C6-E28D-46C4-B545-E1C6B0339E0D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0A2EA957-E486-40CC-9E5C-9E6CCEE0AEE6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30BAF871-ED79-4FCE-A9F5-A57089074DBC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD5F2B75-8F97-4D6D-BBCE-AB563044AC36}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7924440E-D8BA-4363-9C57-BCEAB2862145}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{93466E93-B533-4023-BB16-70529764B54A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{950424B5-0585-4982-989E-C01461E34345}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{416AC6C1-9C11-46F5-8D3E-D4D3C732970B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BED31D42-F3D2-4551-9BEA-81B30FE0263B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1DAC0E94-2A40-41DE-9FEB-B0BBC35423D8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6FE68D97-AC80-4DDB-A24B-7164F73D9AFD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{267D8F6E-B740-4798-8198-9F7CFFA2CB07}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{845206F8-B7BC-4948-8C7C-A0B051F71D0F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4E4A5021-5A69-451F-B041-3F2F9E2FBBE8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF9FA611-854B-438F-9A69-C6E707E4345D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87EDCCE1-E093-4717-B946-2D41E1D793AC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD69A471-F3A8-4B4D-854F-20607AF42C65}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D43B9ACC-5B65-4D20-A7FE-34DF7E3ECC4F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE806AD1-4434-49D1-8A98-5EF8B9BE76C5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{715307E7-AD02-4749-A617-53F91CDE5308}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5221,7 +5221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C57B061-C160-4492-9656-91176C8BB107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB060AA9-E435-462F-8E7D-EF26DF677DF2}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6469,18 +6469,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15A3D263-0F5C-40A3-BAA4-BA21650187B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F07F83C-5701-44E4-9C52-28C2CF518238}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F3F52BBD-6DFD-4755-AAED-EFE937E76375}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4AA1AD19-8289-4EB5-BDF1-3BFD7CFE1DD5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9FE21116-3CB3-42CA-9383-6F31F91F2226}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3414D7C5-34A1-44A9-A095-536E66293996}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5CDC7663-A623-4323-A07D-C42BB857BF51}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25EB2CFC-5060-4D06-BD7B-CBD4C6C37B7E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{946FBBFF-0F48-44FF-8DCC-0E1E7B054BAD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{554A1393-B62C-4BAC-AA77-FD51A3943042}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA0D9C5E-B18C-490A-86EF-22B678D405B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6CB30AD7-72C9-4131-B02A-AA67A8986DEC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CEEB247E-4FB3-40F2-B4CF-4A2CFDC4D717}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67321C30-095B-46CD-A13C-F1B48BE6D137}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8E8715EB-B8DA-44AB-9D36-1D1FC5CA3541}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{00446D44-000B-4AE8-BCDE-9C5654604034}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9FC3936B-929E-478C-8C94-1C4898F1FDC0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{94A1C5C5-269F-4FD9-AFA4-0CEA656F5078}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E99F854-3CF4-4DA7-B7F9-28157D2B871A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7DA113E-0DA7-4438-A2BC-1FE3870AD22F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3BFDE5FD-294A-4872-A811-9F8FE0ACB9C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{075BDB9E-FA41-4D4E-A7A8-8928A0939309}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{216634BF-7181-44B6-A383-E852F0E7A6D3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68F29474-9273-4BC1-A83C-C2E38EF4BE12}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6493,7 +6493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0513D16-1164-4C5F-8404-0F8899921047}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5468B0DD-66D0-4C90-BB08-C1AEB9EE8262}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7774,18 +7774,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC9B1CF9-B1ED-4B7F-940A-10E721A37C61}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B615E9A7-FC23-42EC-BF14-A76801682589}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80B7E5BD-72F3-4070-9719-CFB465C4462F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3B8DD4B-14FB-44BD-B633-DC8C837CC5BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{956B594E-2003-484A-AC75-A9895DCFC984}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AF4A0ACB-A1E3-4F41-B529-B12872BB0901}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13F9F788-7984-4C6D-94C7-40F169803BB7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27ACE22D-22F6-4C68-9A0D-F20D973B5EE0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90FCCDDD-F64D-4EDD-836E-8494D21381B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CDE9504E-413A-4A6B-8DC0-B3C33D6CC5DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D108C617-C187-4208-AC75-F185D0B7ADF3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55C396D3-D0D4-4428-9AC2-1C0E0897D426}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DB02D3F-5E58-48C1-9008-7A10D65BC275}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB79A39C-409C-419A-A1E4-E0E18055BFE9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D3B5574-3D20-40E6-AA61-8EF75BA4E668}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFA2A761-9623-46D5-8372-1A6B1644F974}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1ADCD06E-0072-4588-8798-ECF47387A112}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5BC3E7EE-6DDD-48DA-AB8D-CB8BD24701E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B2632E5-20A7-46BE-A6A2-B3ABF42D1906}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D11EE099-7313-486C-9FBD-621B132DD55D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BA23E45-DFF0-44A2-ACF5-738939FBBCD7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71FA5773-A244-4BBC-BAFB-63D5F8BB9377}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4E0C8D2-1CB5-43B9-9A8A-92AAD24BBEBC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7A195C3-766A-4C81-B4FA-9653A7C20C7E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7798,7 +7798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAB4D82-AEAF-44D1-B245-5E19A4E68519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982A57D6-BEA7-41C3-9D25-047705937602}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9075,18 +9075,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C45F978-9004-4B15-84A7-FCDCE70FC50E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA4C9516-0637-44D9-A595-F004F0788F06}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B90EF6C9-4310-4E8C-8961-320EEFBEC61F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{76D45742-6F79-47A1-98D1-C2DF282AE2B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1FDF3FD-084D-41F5-8473-896EA4C44E89}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DFB8C211-0EA6-45E0-BD83-E9716A8AAEDD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10BBF4C8-AA62-4DD6-88DB-C1C12F6838E6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{605F8EA5-239B-42F1-9D78-4ED8C83C12E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15AE3161-95FE-440A-A865-3B33FFE1D28B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C0A8A7F7-4A45-43A5-8374-B8AA9543BF9E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7CDC76C2-1567-4F9F-9F40-911F602120D7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7AA8788-3D9A-4328-A304-E17DA71557A4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A2AC445-11EF-4FE4-9EE7-CF873D7D5D2B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D1B77CF-EA11-4DB6-8D9D-34468D90D3B9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6488CEF2-1966-4F4D-875C-EFF275ADBC8B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2E774F03-DC15-49CE-BA1F-ABF299CE6129}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33CDB90F-F6F3-4B2E-93A8-E13E8BDA17CB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{39B475C8-1F36-47CD-93F2-9E618BC5F13C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8125F9E8-2C30-4C0D-8C6B-F49D699F8185}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63925DD0-E300-491D-B042-A8936A8BA9CA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A811FDBF-4BC6-4C23-8FA0-F6D92B79A976}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{451988E4-9491-4B64-8B08-FFDCA2129D17}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78C3784D-CA48-4E22-BD86-6FC2ABEBC696}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35E54D87-675B-4716-85F2-31FBFC617EE8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9099,7 +9099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6260A308-3AA0-4FA4-AA36-0E54A9FCEBFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E3D79D-85E4-4362-8B0C-DFCD64826F2E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10376,18 +10376,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29F24428-DB23-448D-B642-1FDB412C9498}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3784EC39-B8CF-48D0-AD0E-8FFD735B4D18}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9CD11A37-A0A1-4554-8198-234A7631510B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A8E8D6E-C0C4-40CD-A937-99072F90C0A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{893618A5-DC79-4326-A9C1-693801B92C72}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E13AEC5C-F768-4820-BB3B-2D50445FDA75}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F698FC94-DF87-4327-A08F-3FE5535232CA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{722B9247-AAF4-45A3-96D3-B81280ED1A9A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3AB84E8D-5CA2-444C-9DBB-6522140676AC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A7970C91-A0FE-463B-ABC7-F1BE7C36E03B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD4B3871-9C16-4A22-A640-200857E32B42}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04A442EC-3CF5-4BC7-80A0-6B01413B4834}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9E1519C-90A1-4D21-8357-3A372BF229CD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0D58610-51A9-4CE0-9E98-0052E59A2BEC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{428ADD9E-3BD4-461D-B481-0271AAE3D23C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{56FEEFC9-825A-49A5-BCFE-3F51D17F9AE0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AABD9593-D424-4F15-BB07-44849A2C88E8}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{524A8054-E006-4D6C-9B67-BCF24A48F0D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE5DBB10-A2E1-4AF8-A0B6-81DB9960E958}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2C4BB27-8579-47BC-A6DE-F1356CD3F712}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{346DA0EF-8A37-40A4-99B9-005B96D48149}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B54F4A89-00F3-4A09-9B2D-3DD84094C45D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9323DA16-8D1C-4997-9862-ADA37BADF7FF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C2A6947-C1BD-4CE6-A7FD-3B4EF886D091}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10400,7 +10400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A6A84C-6D58-474B-9A2B-F3CF808E12F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2197EE43-E0F2-4C9A-AB6D-0E98590C11EF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11677,18 +11677,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34018FFB-F015-4EF2-BB2C-99E2F8CB7573}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CB6F2FF-FDDD-41D0-A0B1-CFA15FCE5E69}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B9903B5-DF7B-4335-ADD6-74BBD8B7F6CE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CBFF65BF-F4E7-420E-976B-7F3987F79C4C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DF286FD-6626-46E9-B5C3-51890B387DE7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F30C0067-B427-4B42-A31B-55CF74357456}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6373AAE6-4A15-4B7A-8A3E-FBE578096E0C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0F5D6B4-D362-43FB-9944-37F7D916CFCF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A9A18B7-4063-4C19-B6B0-52FB026E4B3D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E88DE3D5-D61E-4944-962C-F90500BA49D2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{987D9890-A781-44A7-8850-4BCD81994D67}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{983EACAD-FE65-40D5-9297-E2D1C92251D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5EF4F79-C201-4F25-BEAF-1FC68AB35483}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63DCF747-BAA9-4130-8A97-935C8717C69E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FD9B478E-CD3B-49B4-A2F2-20417734CC00}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D2048199-1975-40F9-881E-5D96EBD03078}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D3F5A4DC-08B9-4FEB-A924-DAF763B20581}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A48110C9-5325-4C11-8321-73065CA5AB74}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F98B698-6A34-44DB-9395-57D26B00EC9F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71E180AF-1DBD-4EDA-A1B1-1C1869454D15}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C40BD7A7-BDD8-4194-A6A6-BAF50D2EF43D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10AE500E-8F8D-48C4-B606-2312E04AB7D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71A6D277-13B6-4BB2-AE64-71F189DBF487}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15085795-D8CE-48B7-9ACF-3C82409B3EAD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11701,7 +11701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F2D785-77DE-43A6-A1AA-EE239BF00D5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95BEF41-A7B4-410E-B6BA-BEACF01DF3AF}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12971,18 +12971,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89AD5858-9C97-453A-A0E8-B816A6ABF068}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3978C3DC-092C-44A5-B960-42642C1E4CF1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{43F19A51-EDD6-43B4-B32E-3B384DB0193E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01D87614-BB2D-4F66-AF83-5AE5DCBD341B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A52A661-FE63-4218-AE93-747A03CD1CE3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AED1D3B1-085A-4741-AAA7-460CA69D61E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B88D2826-EF01-400E-814C-31FD53DE3FFE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1CF99DDA-5886-4CD1-856F-6302F33984EB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4C34953-D10F-4AFE-AFEF-9C89D9B4FBD2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{05F5AEBB-343A-47C3-A3B0-5B4FCBC2353C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15C87FEF-6B23-4B0F-9D26-BAEA02B9BBF4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E28AD8BF-9F00-44DF-988C-AAFA5DC65E3B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F9A8EBF-160F-45CA-AC89-134F1F3BF4ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{292933FA-4B4E-4302-9BDB-6CA9FB0A7217}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6EEC40BB-BB84-4399-9A37-66B7305408D6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B86C482-6B66-4E70-80DA-2D64E48F895D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22699680-6217-4B79-8F66-6D82EEE73A1D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8591D36B-D313-4462-92AB-38661F7F5B6D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F0D6A4C-CD91-48BC-A65B-9E794A71C08C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07F2B643-C263-4220-9E21-62DD6BBFFE37}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{75BDC25D-21A4-44B4-BC25-7FFFB6434877}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A9200366-7F53-470F-BDA1-05285CB1C0D6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F6EA7F8-5AA0-45A2-B401-58B0C5B0DBE9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC71429B-2DC9-4715-8AC1-5D28FAB381AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12995,7 +12995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACDC612-C700-440D-BD02-BF56365C476B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1A7105-EB60-4565-876A-22DD0BF00C35}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14257,18 +14257,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E96854A-7C31-4E4D-BD3F-1C68E034E757}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4548F6DB-7780-4DED-9651-BBE89538C0FC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3A21CE7E-EB41-40D2-97A7-85C33B3D714D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3308298-261A-437B-8948-20A33A67F859}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30BB884B-B267-4E69-9D20-791888E14DCF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B481195D-E9BC-4904-B68D-F4724695C2BB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E391DF1A-361B-49DE-AD06-F8F7A1F2EAC6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1997EBD8-D7A7-4878-979C-4A59859B73AA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E670C102-C232-4135-B154-396A56D4B954}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4BC310F6-455D-4FF9-A401-5A49E786C954}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AEE11334-EE30-4DEB-90E4-81A79A653092}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C2C612C-053D-40E9-B9CD-68D17A1F6811}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3463E495-5A88-4287-B8DF-32812B7345D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{798B43AD-B26E-4287-A085-5E2F818B2DF4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1FEC652-449B-4992-99A5-E3DE4EB9239A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{686329B6-7878-4051-BACE-73D8F1D7FDD1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38CF67A6-A3DD-43DE-974C-49581B043823}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5E96A5A1-DE63-4E3B-84A4-4C8248CA58EC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0060FEB3-072D-418F-ACE1-F4141B3562A8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{387B1E0D-D166-4920-83D6-9F754AC33113}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E38C2734-AF0F-4631-8A8F-03492AFD6A62}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F6B438CC-F319-4990-BC8F-93CF2C416874}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40B3DAB4-3007-4B94-91E4-F771A4F44D0D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6842AED3-794F-4F8A-9E9D-B5EDD231EF3A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14281,7 +14281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FFC87E-CDE0-4966-B4A9-7EC0C0DE4A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668A9B8E-BFED-4A6D-A416-606F570CD253}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15543,18 +15543,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A41DCD7F-98A9-4B41-8048-0A9C47CD5A57}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3EF362A-11F5-4424-B411-CD438E89BF1A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{43A22948-AF65-467F-B990-7B927506FD0D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D744EEA5-ADE5-40C6-9685-03966AA84C51}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{147FF6F3-51A9-4740-BD53-26984FCDD6CD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3947349D-6F49-4A9A-92BA-894543DD5D77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E91FE35-1627-418F-9B3B-4BF86D620C2F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79AFA5F2-5CA5-4286-B43B-E4FCAA942C5A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8FC4A299-00AB-4D5A-85F7-CE94AD563A7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5BD19482-3DE6-4415-90E1-E2946ECE1310}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{683990BA-8EA8-4F4E-B851-A8304E1A6785}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F29F4E66-D787-4515-A4F2-B50983C7361E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{313427AE-F185-4FAF-B62F-A225FC536643}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77C68CB8-EB09-46DE-9BA8-685959D2F1B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3358D3A8-DB4E-4394-88B6-934825E8FD87}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{593B5812-51F7-49E6-A51A-147406C753CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2BA257CC-715A-447D-B3AE-5EA958AC3B8E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8824E3EC-3702-452B-80C4-2CE36D45A80A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D514080B-43F7-47B8-B55B-DFD79BFFCAE8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7AC74EA6-CCB3-41D7-8B49-095CA945F3B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C509332A-1B59-4A85-A523-702F90ABF56D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{58837AAC-3068-4A13-BBF6-1C184C3966BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94463B45-CC15-4AC3-AAF7-598FDFF12062}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67DF3DCF-A929-49CA-B74C-5FA5519415DE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15567,7 +15567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2488EC2C-DE97-45E2-AAE2-2F7717ED103C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB08FF9-1B1B-466A-BC17-13D43C56E287}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16829,18 +16829,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30FB2FC6-3611-4F3B-B293-C4DB93126DD7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E979FE0A-58D2-44B6-9BA6-EB50E36EB4E0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4ABE9099-B388-431B-BF39-2625D75D9F1F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8BB3D725-5690-41CB-B620-0CBFE938602D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AAD1E7E6-D1B9-462F-9DE1-2117BA4FB8D0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3BB25507-FF9E-41FA-862D-49AC68C7A591}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{619F03B0-839D-476D-BAD8-227C1991CC36}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE9884D7-B37E-4899-BF37-A9E282AEA36F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D6C1BAF-D524-4A26-A0C5-53A2180925D5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D725B5EB-4525-431D-BEBF-9B9C7F0E5DD2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AAFAE935-37C9-4FEA-A886-DBA84E334F77}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5CFF1656-ADD5-40C6-B844-2F6BD771CB06}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1FFB162-675D-4AC2-B9B3-642C1B20EBBA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF495625-8CFF-4E79-9764-53BFC3A8A5D1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9B451783-7E31-4057-A8E0-0378B4790C71}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D3E19E3-FC90-45D8-92A5-62D52EB82BFD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84E5E56A-9460-43CE-86ED-93ACD276E2AA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DE979541-2DBF-4E68-B1FF-40EA18C7D871}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03159553-D07C-4171-A8A0-AF3198E4A113}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91F7B81A-1853-4708-AC88-4F89C1605671}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8FD9773-0197-49DB-9AA7-9BAC3201A4A0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4C2C04A-ED36-4EA8-BBA1-7A8AE474B6D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5FEF15E-448D-44EB-A5F7-AA82D25EAA9D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5565457-F494-410E-8BF5-75AD5F56C704}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
